--- a/biology/Zoologie/Corystes/Corystes.xlsx
+++ b/biology/Zoologie/Corystes/Corystes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corystes cassivelaunus est une espèce de crabes de la famille des Corystidae. C'est l'unique espèce du genre Corystes (monotypique). Le nom français coryste (et le latin corystes) vient du mot grec κορυστής qui signifie combattant armé d'un casque.
 </t>
@@ -511,7 +523,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi d'autres : coryste, coryste denté, crabe casqué, crabe masqué.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Crabe fouisseur, vivant dans le sable.
 Carapace allongée, jusqu'à 40 mm.
@@ -576,7 +592,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Infra et circalittoral, sur fonds sableux fins, peu profonds.
 Côtes britanniques, scandinaves et atlantiques jusqu'au Portugal et en Méditerranée.
